--- a/biology/Zoologie/Born_to_Be_Wild_(film)/Born_to_Be_Wild_(film).xlsx
+++ b/biology/Zoologie/Born_to_Be_Wild_(film)/Born_to_Be_Wild_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Born to Be Wild est un film documentaire américain réalisé par David Lickley, sorti en salles en 2011
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,7 +553,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : David Lickely
 Scénariste et producteur : Drew Fellman
@@ -578,7 +594,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Morgan Freeman : narrateur</t>
         </is>
@@ -608,7 +626,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Prix du meilleur film Grand Format 2011 lors de la Convention du Giant Screen Cinema Association.</t>
         </is>
